--- a/level-3/atcoder/phase-3-3-grand-contests/atcoder-phase-3-3-grand-contests.xlsx
+++ b/level-3/atcoder/phase-3-3-grand-contests/atcoder-phase-3-3-grand-contests.xlsx
@@ -1,19 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACF59C6-43D5-4C38-99DF-80CC85D659F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF81A93-4F2E-4DE0-95C5-B3EF64E3C75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="grand contests" sheetId="1" r:id="rId1"/>
+    <sheet name="atcoder grand contests" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -542,7 +553,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -565,10 +576,7 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -589,7 +597,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -609,7 +617,1057 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="200">
+  <dxfs count="350">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2296,53 +3354,53 @@
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5546875" style="7" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" style="1" customWidth="1"/>
-    <col min="5" max="9" width="15" style="13" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="13" customWidth="1"/>
+    <col min="5" max="9" width="15" style="12" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="4">
         <f>COUNTA(B3:B861)</f>
         <v>55</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="9" t="e">
         <f t="shared" ref="E2:J2" si="0">AVERAGE(E3:E149)</f>
         <v>#DIV/0!</v>
@@ -2369,7 +3427,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>65</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -2379,18 +3437,18 @@
         <v>2</v>
       </c>
       <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
       <c r="J3" s="10">
         <f t="shared" ref="J3:J57" si="1">SUM(E3:I3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -2411,7 +3469,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -2432,7 +3490,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -2453,7 +3511,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2474,7 +3532,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2495,7 +3553,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -2505,18 +3563,18 @@
         <v>2</v>
       </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -2537,7 +3595,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" s="5" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>73</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -2558,10 +3616,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="10">
@@ -2579,10 +3637,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="11">
@@ -2600,10 +3658,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="10">
@@ -2621,10 +3679,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="11">
@@ -2642,10 +3700,10 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="10">
@@ -2663,31 +3721,31 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="11">
         <v>2</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="10">
@@ -2705,10 +3763,10 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="11">
@@ -2726,10 +3784,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="10">
@@ -2747,10 +3805,10 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="11">
@@ -2768,10 +3826,10 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="10">
@@ -2789,10 +3847,10 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="11">
@@ -2810,10 +3868,10 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="10">
@@ -2831,31 +3889,31 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="11">
         <v>2</v>
       </c>
       <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
       <c r="J25" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="10">
@@ -2873,10 +3931,10 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="11">
@@ -2894,10 +3952,10 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C28" s="11">
@@ -2909,10 +3967,10 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="11">
@@ -2924,10 +3982,10 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C30" s="11">
@@ -2939,10 +3997,10 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="11">
@@ -2954,10 +4012,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C32" s="11">
@@ -2969,7 +4027,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="17" t="s">
         <v>95</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -2990,7 +4048,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="17" t="s">
         <v>96</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -3011,7 +4069,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>97</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -3032,7 +4090,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="17" t="s">
         <v>98</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -3053,7 +4111,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="17" t="s">
         <v>99</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -3074,7 +4132,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="17" t="s">
         <v>100</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -3095,7 +4153,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="17" t="s">
         <v>101</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -3116,7 +4174,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="17" t="s">
         <v>102</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -3137,7 +4195,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="17" t="s">
         <v>103</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -3147,18 +4205,18 @@
         <v>2</v>
       </c>
       <c r="D41" s="10"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
       <c r="J41" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="17" t="s">
         <v>104</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -3179,7 +4237,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="17" t="s">
         <v>105</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -3200,7 +4258,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="17" t="s">
         <v>106</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -3210,18 +4268,18 @@
         <v>2</v>
       </c>
       <c r="D44" s="11"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
       <c r="J44" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="17" t="s">
         <v>107</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -3231,18 +4289,18 @@
         <v>2</v>
       </c>
       <c r="D45" s="10"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
       <c r="J45" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="17" t="s">
         <v>108</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -3252,18 +4310,18 @@
         <v>2</v>
       </c>
       <c r="D46" s="11"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
       <c r="J46" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="17" t="s">
         <v>109</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -3284,7 +4342,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="17" t="s">
         <v>110</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -3305,7 +4363,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="17" t="s">
         <v>111</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -3326,7 +4384,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="17" t="s">
         <v>112</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -3347,7 +4405,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="17" t="s">
         <v>113</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -3368,7 +4426,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="17" t="s">
         <v>114</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -3389,7 +4447,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="17" t="s">
         <v>115</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -3399,18 +4457,18 @@
         <v>2</v>
       </c>
       <c r="D53" s="10"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
       <c r="J53" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="17" t="s">
         <v>116</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -3420,18 +4478,18 @@
         <v>2</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
       <c r="J54" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="17" t="s">
         <v>117</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -3452,7 +4510,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="17" t="s">
         <v>118</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -3473,7 +4531,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="17" t="s">
         <v>119</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -3494,7 +4552,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="18"/>
+      <c r="A58" s="17"/>
       <c r="B58" s="6"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -3506,7 +4564,7 @@
       <c r="J58" s="10"/>
     </row>
     <row r="59" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="18"/>
+      <c r="A59" s="17"/>
       <c r="B59" s="6"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -3518,7 +4576,7 @@
       <c r="J59" s="10"/>
     </row>
     <row r="60" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="18"/>
+      <c r="A60" s="17"/>
       <c r="B60" s="6"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -3530,7 +4588,7 @@
       <c r="J60" s="10"/>
     </row>
     <row r="61" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="18"/>
+      <c r="A61" s="17"/>
       <c r="B61" s="6"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -3542,7 +4600,7 @@
       <c r="J61" s="10"/>
     </row>
     <row r="62" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="18"/>
+      <c r="A62" s="17"/>
       <c r="B62" s="6"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -3554,7 +4612,7 @@
       <c r="J62" s="10"/>
     </row>
     <row r="63" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="18"/>
+      <c r="A63" s="17"/>
       <c r="B63" s="6"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -3566,19 +4624,19 @@
       <c r="J63" s="10"/>
     </row>
     <row r="64" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="18"/>
+      <c r="A64" s="17"/>
       <c r="B64" s="6"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
       <c r="J64" s="10"/>
     </row>
     <row r="65" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="18"/>
+      <c r="A65" s="17"/>
       <c r="B65" s="6"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -3590,7 +4648,7 @@
       <c r="J65" s="10"/>
     </row>
     <row r="66" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="18"/>
+      <c r="A66" s="17"/>
       <c r="B66" s="6"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -3602,7 +4660,7 @@
       <c r="J66" s="10"/>
     </row>
     <row r="67" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="18"/>
+      <c r="A67" s="17"/>
       <c r="B67" s="6"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -3614,7 +4672,7 @@
       <c r="J67" s="10"/>
     </row>
     <row r="68" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="18"/>
+      <c r="A68" s="17"/>
       <c r="B68" s="6"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -3626,19 +4684,19 @@
       <c r="J68" s="10"/>
     </row>
     <row r="69" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="18"/>
+      <c r="A69" s="17"/>
       <c r="B69" s="6"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
       <c r="J69" s="10"/>
     </row>
     <row r="70" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="18"/>
+      <c r="A70" s="17"/>
       <c r="B70" s="6"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -3650,7 +4708,7 @@
       <c r="J70" s="10"/>
     </row>
     <row r="71" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="18"/>
+      <c r="A71" s="17"/>
       <c r="B71" s="6"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -3662,7 +4720,7 @@
       <c r="J71" s="10"/>
     </row>
     <row r="72" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="18"/>
+      <c r="A72" s="17"/>
       <c r="B72" s="6"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
@@ -3674,19 +4732,19 @@
       <c r="J72" s="10"/>
     </row>
     <row r="73" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="18"/>
+      <c r="A73" s="17"/>
       <c r="B73" s="6"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
       <c r="J73" s="10"/>
     </row>
     <row r="74" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="18"/>
+      <c r="A74" s="17"/>
       <c r="B74" s="6"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -3698,7 +4756,7 @@
       <c r="J74" s="10"/>
     </row>
     <row r="75" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="18"/>
+      <c r="A75" s="17"/>
       <c r="B75" s="6"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -3710,7 +4768,7 @@
       <c r="J75" s="10"/>
     </row>
     <row r="76" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="18"/>
+      <c r="A76" s="17"/>
       <c r="B76" s="6"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -3722,19 +4780,19 @@
       <c r="J76" s="10"/>
     </row>
     <row r="77" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="18"/>
+      <c r="A77" s="17"/>
       <c r="B77" s="6"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
       <c r="J77" s="10"/>
     </row>
     <row r="78" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="18"/>
+      <c r="A78" s="17"/>
       <c r="B78" s="6"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -3746,7 +4804,7 @@
       <c r="J78" s="10"/>
     </row>
     <row r="79" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="18"/>
+      <c r="A79" s="17"/>
       <c r="B79" s="6"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
@@ -3758,19 +4816,19 @@
       <c r="J79" s="10"/>
     </row>
     <row r="80" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="18"/>
+      <c r="A80" s="17"/>
       <c r="B80" s="6"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
       <c r="J80" s="10"/>
     </row>
     <row r="81" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="18"/>
+      <c r="A81" s="17"/>
       <c r="B81" s="6"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
@@ -3782,7 +4840,7 @@
       <c r="J81" s="10"/>
     </row>
     <row r="82" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="18"/>
+      <c r="A82" s="17"/>
       <c r="B82" s="6"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
@@ -3794,19 +4852,19 @@
       <c r="J82" s="10"/>
     </row>
     <row r="83" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="18"/>
+      <c r="A83" s="17"/>
       <c r="B83" s="6"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
       <c r="J83" s="10"/>
     </row>
     <row r="84" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="18"/>
+      <c r="A84" s="17"/>
       <c r="B84" s="6"/>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
@@ -3818,7 +4876,7 @@
       <c r="J84" s="10"/>
     </row>
     <row r="85" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="18"/>
+      <c r="A85" s="17"/>
       <c r="B85" s="6"/>
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
@@ -3830,67 +4888,67 @@
       <c r="J85" s="10"/>
     </row>
     <row r="86" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="18"/>
+      <c r="A86" s="17"/>
       <c r="B86" s="6"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
       <c r="J86" s="10"/>
     </row>
     <row r="87" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="18"/>
+      <c r="A87" s="17"/>
       <c r="B87" s="6"/>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
       <c r="J87" s="10"/>
     </row>
     <row r="88" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="18"/>
+      <c r="A88" s="17"/>
       <c r="B88" s="6"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
       <c r="J88" s="10"/>
     </row>
     <row r="89" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="18"/>
+      <c r="A89" s="17"/>
       <c r="B89" s="6"/>
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
       <c r="J89" s="10"/>
     </row>
     <row r="90" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="18"/>
+      <c r="A90" s="17"/>
       <c r="B90" s="6"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
       <c r="J90" s="10"/>
     </row>
     <row r="91" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="18"/>
+      <c r="A91" s="17"/>
       <c r="B91" s="6"/>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
@@ -3902,7 +4960,7 @@
       <c r="J91" s="10"/>
     </row>
     <row r="92" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="18"/>
+      <c r="A92" s="17"/>
       <c r="B92" s="6"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -3914,7 +4972,7 @@
       <c r="J92" s="10"/>
     </row>
     <row r="93" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="18"/>
+      <c r="A93" s="17"/>
       <c r="B93" s="6"/>
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
@@ -3926,19 +4984,19 @@
       <c r="J93" s="10"/>
     </row>
     <row r="94" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="18"/>
+      <c r="A94" s="17"/>
       <c r="B94" s="6"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
       <c r="J94" s="10"/>
     </row>
     <row r="95" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="18"/>
+      <c r="A95" s="17"/>
       <c r="B95" s="6"/>
       <c r="C95" s="10"/>
       <c r="D95" s="10"/>
@@ -3950,7 +5008,7 @@
       <c r="J95" s="10"/>
     </row>
     <row r="96" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="18"/>
+      <c r="A96" s="17"/>
       <c r="B96" s="6"/>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
@@ -3962,7 +5020,7 @@
       <c r="J96" s="10"/>
     </row>
     <row r="97" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="18"/>
+      <c r="A97" s="17"/>
       <c r="B97" s="6"/>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
@@ -3974,7 +5032,7 @@
       <c r="J97" s="10"/>
     </row>
     <row r="98" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="18"/>
+      <c r="A98" s="17"/>
       <c r="B98" s="6"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
@@ -3986,7 +5044,7 @@
       <c r="J98" s="10"/>
     </row>
     <row r="99" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A99" s="18"/>
+      <c r="A99" s="17"/>
       <c r="B99" s="6"/>
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
@@ -3998,19 +5056,19 @@
       <c r="J99" s="10"/>
     </row>
     <row r="100" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A100" s="18"/>
+      <c r="A100" s="17"/>
       <c r="B100" s="6"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
       <c r="J100" s="10"/>
     </row>
     <row r="101" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A101" s="18"/>
+      <c r="A101" s="17"/>
       <c r="B101" s="6"/>
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
@@ -4022,7 +5080,7 @@
       <c r="J101" s="10"/>
     </row>
     <row r="102" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A102" s="18"/>
+      <c r="A102" s="17"/>
       <c r="B102" s="6"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
@@ -4034,31 +5092,31 @@
       <c r="J102" s="10"/>
     </row>
     <row r="103" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A103" s="18"/>
+      <c r="A103" s="17"/>
       <c r="B103" s="6"/>
       <c r="C103" s="10"/>
       <c r="D103" s="10"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="12"/>
-      <c r="H103" s="12"/>
-      <c r="I103" s="12"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
       <c r="J103" s="10"/>
     </row>
     <row r="104" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A104" s="18"/>
+      <c r="A104" s="17"/>
       <c r="B104" s="6"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="12"/>
-      <c r="H104" s="12"/>
-      <c r="I104" s="12"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
       <c r="J104" s="10"/>
     </row>
     <row r="105" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A105" s="18"/>
+      <c r="A105" s="17"/>
       <c r="B105" s="6"/>
       <c r="C105" s="10"/>
       <c r="D105" s="10"/>
@@ -4070,7 +5128,7 @@
       <c r="J105" s="10"/>
     </row>
     <row r="106" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A106" s="18"/>
+      <c r="A106" s="17"/>
       <c r="B106" s="6"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
@@ -4082,7 +5140,7 @@
       <c r="J106" s="10"/>
     </row>
     <row r="107" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A107" s="18"/>
+      <c r="A107" s="17"/>
       <c r="B107" s="6"/>
       <c r="C107" s="10"/>
       <c r="D107" s="10"/>
@@ -4094,7 +5152,7 @@
       <c r="J107" s="10"/>
     </row>
     <row r="108" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A108" s="18"/>
+      <c r="A108" s="17"/>
       <c r="B108" s="6"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
@@ -4106,7 +5164,7 @@
       <c r="J108" s="10"/>
     </row>
     <row r="109" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A109" s="18"/>
+      <c r="A109" s="17"/>
       <c r="C109" s="10"/>
       <c r="D109" s="10"/>
       <c r="E109" s="11"/>
@@ -4117,18 +5175,18 @@
       <c r="J109" s="10"/>
     </row>
     <row r="110" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A110" s="18"/>
+      <c r="A110" s="17"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
-      <c r="H110" s="12"/>
-      <c r="I110" s="12"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
       <c r="J110" s="10"/>
     </row>
     <row r="111" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A111" s="18"/>
+      <c r="A111" s="17"/>
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
       <c r="E111" s="11"/>
@@ -4139,7 +5197,7 @@
       <c r="J111" s="10"/>
     </row>
     <row r="112" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A112" s="18"/>
+      <c r="A112" s="17"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
       <c r="E112" s="11"/>
@@ -4150,7 +5208,7 @@
       <c r="J112" s="10"/>
     </row>
     <row r="113" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A113" s="18"/>
+      <c r="A113" s="17"/>
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
       <c r="E113" s="11"/>
@@ -4161,7 +5219,7 @@
       <c r="J113" s="10"/>
     </row>
     <row r="114" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A114" s="18"/>
+      <c r="A114" s="17"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
@@ -4172,7 +5230,7 @@
       <c r="J114" s="10"/>
     </row>
     <row r="115" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A115" s="18"/>
+      <c r="A115" s="17"/>
       <c r="C115" s="10"/>
       <c r="D115" s="10"/>
       <c r="E115" s="11"/>
@@ -4183,7 +5241,7 @@
       <c r="J115" s="10"/>
     </row>
     <row r="116" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A116" s="18"/>
+      <c r="A116" s="17"/>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11"/>
@@ -4194,7 +5252,7 @@
       <c r="J116" s="10"/>
     </row>
     <row r="117" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A117" s="18"/>
+      <c r="A117" s="17"/>
       <c r="C117" s="10"/>
       <c r="D117" s="10"/>
       <c r="E117" s="11"/>
@@ -4205,18 +5263,18 @@
       <c r="J117" s="10"/>
     </row>
     <row r="118" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A118" s="18"/>
+      <c r="A118" s="17"/>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
-      <c r="H118" s="12"/>
-      <c r="I118" s="12"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
       <c r="J118" s="10"/>
     </row>
     <row r="119" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A119" s="18"/>
+      <c r="A119" s="17"/>
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
       <c r="E119" s="11"/>
@@ -4227,7 +5285,7 @@
       <c r="J119" s="10"/>
     </row>
     <row r="120" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A120" s="18"/>
+      <c r="A120" s="17"/>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
       <c r="E120" s="11"/>
@@ -4238,7 +5296,7 @@
       <c r="J120" s="10"/>
     </row>
     <row r="121" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A121" s="18"/>
+      <c r="A121" s="17"/>
       <c r="C121" s="10"/>
       <c r="D121" s="10"/>
       <c r="E121" s="11"/>
@@ -4249,7 +5307,7 @@
       <c r="J121" s="10"/>
     </row>
     <row r="122" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A122" s="18"/>
+      <c r="A122" s="17"/>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
       <c r="E122" s="11"/>
@@ -4260,7 +5318,7 @@
       <c r="J122" s="10"/>
     </row>
     <row r="123" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A123" s="18"/>
+      <c r="A123" s="17"/>
       <c r="C123" s="10"/>
       <c r="D123" s="10"/>
       <c r="E123" s="11"/>
@@ -4281,19 +5339,19 @@
       <c r="J124" s="10"/>
     </row>
     <row r="125" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="18"/>
+      <c r="A125" s="17"/>
       <c r="B125" s="6"/>
       <c r="C125" s="11"/>
       <c r="D125" s="11"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="12"/>
-      <c r="G125" s="12"/>
-      <c r="H125" s="12"/>
-      <c r="I125" s="12"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
       <c r="J125" s="10"/>
     </row>
     <row r="126" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="18"/>
+      <c r="A126" s="17"/>
       <c r="B126" s="6"/>
       <c r="C126" s="10"/>
       <c r="D126" s="10"/>
@@ -4305,7 +5363,7 @@
       <c r="J126" s="10"/>
     </row>
     <row r="127" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="18"/>
+      <c r="A127" s="17"/>
       <c r="B127" s="6"/>
       <c r="C127" s="11"/>
       <c r="D127" s="11"/>
@@ -4317,7 +5375,7 @@
       <c r="J127" s="10"/>
     </row>
     <row r="128" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="18"/>
+      <c r="A128" s="17"/>
       <c r="B128" s="6"/>
       <c r="C128" s="10"/>
       <c r="D128" s="10"/>
@@ -4329,7 +5387,7 @@
       <c r="J128" s="10"/>
     </row>
     <row r="129" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="18"/>
+      <c r="A129" s="17"/>
       <c r="B129" s="6"/>
       <c r="C129" s="11"/>
       <c r="D129" s="11"/>
@@ -4341,7 +5399,7 @@
       <c r="J129" s="10"/>
     </row>
     <row r="130" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="18"/>
+      <c r="A130" s="17"/>
       <c r="B130" s="6"/>
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
@@ -4353,7 +5411,7 @@
       <c r="J130" s="10"/>
     </row>
     <row r="131" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="18"/>
+      <c r="A131" s="17"/>
       <c r="B131" s="6"/>
       <c r="C131" s="11"/>
       <c r="D131" s="11"/>
@@ -4365,7 +5423,7 @@
       <c r="J131" s="10"/>
     </row>
     <row r="132" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="18"/>
+      <c r="A132" s="17"/>
       <c r="B132" s="6"/>
       <c r="C132" s="10"/>
       <c r="D132" s="10"/>
@@ -4377,7 +5435,7 @@
       <c r="J132" s="10"/>
     </row>
     <row r="133" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="18"/>
+      <c r="A133" s="17"/>
       <c r="B133" s="6"/>
       <c r="C133" s="11"/>
       <c r="D133" s="11"/>
@@ -4389,7 +5447,7 @@
       <c r="J133" s="10"/>
     </row>
     <row r="134" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="18"/>
+      <c r="A134" s="17"/>
       <c r="B134" s="6"/>
       <c r="C134" s="10"/>
       <c r="D134" s="10"/>
@@ -4401,19 +5459,19 @@
       <c r="J134" s="10"/>
     </row>
     <row r="135" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="18"/>
+      <c r="A135" s="17"/>
       <c r="B135" s="6"/>
       <c r="C135" s="11"/>
       <c r="D135" s="11"/>
-      <c r="E135" s="12"/>
-      <c r="F135" s="12"/>
-      <c r="G135" s="12"/>
-      <c r="H135" s="12"/>
-      <c r="I135" s="12"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="11"/>
       <c r="J135" s="10"/>
     </row>
     <row r="136" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="18"/>
+      <c r="A136" s="17"/>
       <c r="B136" s="6"/>
       <c r="C136" s="10"/>
       <c r="D136" s="10"/>
@@ -4425,7 +5483,7 @@
       <c r="J136" s="10"/>
     </row>
     <row r="137" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="18"/>
+      <c r="A137" s="17"/>
       <c r="B137" s="6"/>
       <c r="C137" s="11"/>
       <c r="D137" s="11"/>
@@ -4437,7 +5495,7 @@
       <c r="J137" s="10"/>
     </row>
     <row r="138" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="18"/>
+      <c r="A138" s="17"/>
       <c r="B138" s="6"/>
       <c r="C138" s="10"/>
       <c r="D138" s="10"/>
@@ -4449,7 +5507,7 @@
       <c r="J138" s="10"/>
     </row>
     <row r="139" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="18"/>
+      <c r="A139" s="17"/>
       <c r="B139" s="6"/>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
@@ -4461,19 +5519,19 @@
       <c r="J139" s="10"/>
     </row>
     <row r="140" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="18"/>
+      <c r="A140" s="17"/>
       <c r="B140" s="6"/>
       <c r="C140" s="10"/>
       <c r="D140" s="10"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="12"/>
-      <c r="G140" s="12"/>
-      <c r="H140" s="12"/>
-      <c r="I140" s="12"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="11"/>
       <c r="J140" s="10"/>
     </row>
     <row r="141" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="18"/>
+      <c r="A141" s="17"/>
       <c r="B141" s="6"/>
       <c r="C141" s="11"/>
       <c r="D141" s="11"/>
@@ -4485,7 +5543,7 @@
       <c r="J141" s="10"/>
     </row>
     <row r="142" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="18"/>
+      <c r="A142" s="17"/>
       <c r="B142" s="6"/>
       <c r="C142" s="10"/>
       <c r="D142" s="10"/>
@@ -4497,7 +5555,7 @@
       <c r="J142" s="10"/>
     </row>
     <row r="143" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="18"/>
+      <c r="A143" s="17"/>
       <c r="B143" s="6"/>
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
@@ -4509,19 +5567,19 @@
       <c r="J143" s="10"/>
     </row>
     <row r="144" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="18"/>
+      <c r="A144" s="17"/>
       <c r="B144" s="6"/>
       <c r="C144" s="10"/>
       <c r="D144" s="10"/>
-      <c r="E144" s="12"/>
-      <c r="F144" s="12"/>
-      <c r="G144" s="12"/>
-      <c r="H144" s="12"/>
-      <c r="I144" s="12"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="11"/>
       <c r="J144" s="10"/>
     </row>
     <row r="145" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="18"/>
+      <c r="A145" s="17"/>
       <c r="B145" s="6"/>
       <c r="C145" s="11"/>
       <c r="D145" s="11"/>
@@ -4533,7 +5591,7 @@
       <c r="J145" s="10"/>
     </row>
     <row r="146" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="18"/>
+      <c r="A146" s="17"/>
       <c r="B146" s="6"/>
       <c r="C146" s="10"/>
       <c r="D146" s="10"/>
@@ -4545,7 +5603,7 @@
       <c r="J146" s="10"/>
     </row>
     <row r="147" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="18"/>
+      <c r="A147" s="17"/>
       <c r="B147" s="6"/>
       <c r="C147" s="11"/>
       <c r="D147" s="11"/>
@@ -4557,19 +5615,19 @@
       <c r="J147" s="10"/>
     </row>
     <row r="148" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="18"/>
+      <c r="A148" s="17"/>
       <c r="B148" s="6"/>
       <c r="C148" s="10"/>
       <c r="D148" s="10"/>
-      <c r="E148" s="12"/>
-      <c r="F148" s="12"/>
-      <c r="G148" s="12"/>
-      <c r="H148" s="12"/>
-      <c r="I148" s="12"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="11"/>
       <c r="J148" s="10"/>
     </row>
     <row r="149" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="18"/>
+      <c r="A149" s="17"/>
       <c r="B149" s="6"/>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
@@ -4581,7 +5639,7 @@
       <c r="J149" s="10"/>
     </row>
     <row r="150" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="18"/>
+      <c r="A150" s="17"/>
       <c r="B150" s="6"/>
       <c r="C150" s="10"/>
       <c r="D150" s="10"/>
@@ -4593,19 +5651,19 @@
       <c r="J150" s="10"/>
     </row>
     <row r="151" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="18"/>
+      <c r="A151" s="17"/>
       <c r="B151" s="6"/>
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
-      <c r="E151" s="12"/>
-      <c r="F151" s="12"/>
-      <c r="G151" s="12"/>
-      <c r="H151" s="12"/>
-      <c r="I151" s="12"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="11"/>
       <c r="J151" s="10"/>
     </row>
     <row r="152" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="18"/>
+      <c r="A152" s="17"/>
       <c r="B152" s="6"/>
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
@@ -4617,7 +5675,7 @@
       <c r="J152" s="10"/>
     </row>
     <row r="153" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="18"/>
+      <c r="A153" s="17"/>
       <c r="B153" s="6"/>
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
@@ -4629,19 +5687,19 @@
       <c r="J153" s="10"/>
     </row>
     <row r="154" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="18"/>
+      <c r="A154" s="17"/>
       <c r="B154" s="6"/>
       <c r="C154" s="10"/>
       <c r="D154" s="10"/>
-      <c r="E154" s="12"/>
-      <c r="F154" s="12"/>
-      <c r="G154" s="12"/>
-      <c r="H154" s="12"/>
-      <c r="I154" s="12"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="11"/>
+      <c r="I154" s="11"/>
       <c r="J154" s="10"/>
     </row>
     <row r="155" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="18"/>
+      <c r="A155" s="17"/>
       <c r="B155" s="6"/>
       <c r="C155" s="11"/>
       <c r="D155" s="11"/>
@@ -4653,7 +5711,7 @@
       <c r="J155" s="10"/>
     </row>
     <row r="156" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="18"/>
+      <c r="A156" s="17"/>
       <c r="B156" s="6"/>
       <c r="C156" s="10"/>
       <c r="D156" s="10"/>
@@ -4665,67 +5723,67 @@
       <c r="J156" s="10"/>
     </row>
     <row r="157" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="18"/>
+      <c r="A157" s="17"/>
       <c r="B157" s="6"/>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
-      <c r="E157" s="12"/>
-      <c r="F157" s="12"/>
-      <c r="G157" s="12"/>
-      <c r="H157" s="12"/>
-      <c r="I157" s="12"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="11"/>
+      <c r="I157" s="11"/>
       <c r="J157" s="10"/>
     </row>
     <row r="158" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="18"/>
+      <c r="A158" s="17"/>
       <c r="B158" s="6"/>
       <c r="C158" s="10"/>
       <c r="D158" s="10"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="12"/>
-      <c r="G158" s="12"/>
-      <c r="H158" s="12"/>
-      <c r="I158" s="12"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="11"/>
+      <c r="I158" s="11"/>
       <c r="J158" s="10"/>
     </row>
     <row r="159" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="18"/>
+      <c r="A159" s="17"/>
       <c r="B159" s="6"/>
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
-      <c r="E159" s="12"/>
-      <c r="F159" s="12"/>
-      <c r="G159" s="12"/>
-      <c r="H159" s="12"/>
-      <c r="I159" s="12"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="11"/>
       <c r="J159" s="10"/>
     </row>
     <row r="160" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="18"/>
+      <c r="A160" s="17"/>
       <c r="B160" s="6"/>
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
-      <c r="E160" s="12"/>
-      <c r="F160" s="12"/>
-      <c r="G160" s="12"/>
-      <c r="H160" s="12"/>
-      <c r="I160" s="12"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="11"/>
+      <c r="I160" s="11"/>
       <c r="J160" s="10"/>
     </row>
     <row r="161" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="18"/>
+      <c r="A161" s="17"/>
       <c r="B161" s="6"/>
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
-      <c r="E161" s="12"/>
-      <c r="F161" s="12"/>
-      <c r="G161" s="12"/>
-      <c r="H161" s="12"/>
-      <c r="I161" s="12"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
+      <c r="H161" s="11"/>
+      <c r="I161" s="11"/>
       <c r="J161" s="10"/>
     </row>
     <row r="162" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="18"/>
+      <c r="A162" s="17"/>
       <c r="B162" s="6"/>
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
@@ -4737,7 +5795,7 @@
       <c r="J162" s="10"/>
     </row>
     <row r="163" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="18"/>
+      <c r="A163" s="17"/>
       <c r="B163" s="6"/>
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
@@ -4749,7 +5807,7 @@
       <c r="J163" s="10"/>
     </row>
     <row r="164" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="18"/>
+      <c r="A164" s="17"/>
       <c r="B164" s="6"/>
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
@@ -4761,19 +5819,19 @@
       <c r="J164" s="10"/>
     </row>
     <row r="165" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="18"/>
+      <c r="A165" s="17"/>
       <c r="B165" s="6"/>
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
-      <c r="E165" s="12"/>
-      <c r="F165" s="12"/>
-      <c r="G165" s="12"/>
-      <c r="H165" s="12"/>
-      <c r="I165" s="12"/>
+      <c r="E165" s="11"/>
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="11"/>
+      <c r="I165" s="11"/>
       <c r="J165" s="10"/>
     </row>
     <row r="166" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="18"/>
+      <c r="A166" s="17"/>
       <c r="B166" s="6"/>
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
@@ -4785,7 +5843,7 @@
       <c r="J166" s="10"/>
     </row>
     <row r="167" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="18"/>
+      <c r="A167" s="17"/>
       <c r="B167" s="6"/>
       <c r="C167" s="11"/>
       <c r="D167" s="11"/>
@@ -4797,7 +5855,7 @@
       <c r="J167" s="10"/>
     </row>
     <row r="168" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="18"/>
+      <c r="A168" s="17"/>
       <c r="B168" s="6"/>
       <c r="C168" s="10"/>
       <c r="D168" s="10"/>
@@ -4809,7 +5867,7 @@
       <c r="J168" s="10"/>
     </row>
     <row r="169" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="18"/>
+      <c r="A169" s="17"/>
       <c r="B169" s="6"/>
       <c r="C169" s="11"/>
       <c r="D169" s="11"/>
@@ -4821,7 +5879,7 @@
       <c r="J169" s="10"/>
     </row>
     <row r="170" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A170" s="18"/>
+      <c r="A170" s="17"/>
       <c r="B170" s="6"/>
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
@@ -4833,19 +5891,19 @@
       <c r="J170" s="10"/>
     </row>
     <row r="171" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A171" s="18"/>
+      <c r="A171" s="17"/>
       <c r="B171" s="6"/>
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
-      <c r="E171" s="12"/>
-      <c r="F171" s="12"/>
-      <c r="G171" s="12"/>
-      <c r="H171" s="12"/>
-      <c r="I171" s="12"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="11"/>
+      <c r="G171" s="11"/>
+      <c r="H171" s="11"/>
+      <c r="I171" s="11"/>
       <c r="J171" s="10"/>
     </row>
     <row r="172" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A172" s="18"/>
+      <c r="A172" s="17"/>
       <c r="B172" s="6"/>
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
@@ -4857,7 +5915,7 @@
       <c r="J172" s="10"/>
     </row>
     <row r="173" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A173" s="18"/>
+      <c r="A173" s="17"/>
       <c r="B173" s="6"/>
       <c r="C173" s="11"/>
       <c r="D173" s="11"/>
@@ -4869,31 +5927,31 @@
       <c r="J173" s="10"/>
     </row>
     <row r="174" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A174" s="18"/>
+      <c r="A174" s="17"/>
       <c r="B174" s="6"/>
       <c r="C174" s="10"/>
       <c r="D174" s="10"/>
-      <c r="E174" s="12"/>
-      <c r="F174" s="12"/>
-      <c r="G174" s="12"/>
-      <c r="H174" s="12"/>
-      <c r="I174" s="12"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
+      <c r="G174" s="11"/>
+      <c r="H174" s="11"/>
+      <c r="I174" s="11"/>
       <c r="J174" s="10"/>
     </row>
     <row r="175" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A175" s="18"/>
+      <c r="A175" s="17"/>
       <c r="B175" s="6"/>
       <c r="C175" s="11"/>
       <c r="D175" s="11"/>
-      <c r="E175" s="12"/>
-      <c r="F175" s="12"/>
-      <c r="G175" s="12"/>
-      <c r="H175" s="12"/>
-      <c r="I175" s="12"/>
+      <c r="E175" s="11"/>
+      <c r="F175" s="11"/>
+      <c r="G175" s="11"/>
+      <c r="H175" s="11"/>
+      <c r="I175" s="11"/>
       <c r="J175" s="10"/>
     </row>
     <row r="176" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A176" s="18"/>
+      <c r="A176" s="17"/>
       <c r="B176" s="6"/>
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
@@ -4905,7 +5963,7 @@
       <c r="J176" s="10"/>
     </row>
     <row r="177" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A177" s="18"/>
+      <c r="A177" s="17"/>
       <c r="B177" s="6"/>
       <c r="C177" s="11"/>
       <c r="D177" s="11"/>
@@ -4917,7 +5975,7 @@
       <c r="J177" s="10"/>
     </row>
     <row r="178" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A178" s="18"/>
+      <c r="A178" s="17"/>
       <c r="B178" s="6"/>
       <c r="C178" s="10"/>
       <c r="D178" s="10"/>
@@ -4929,7 +5987,7 @@
       <c r="J178" s="10"/>
     </row>
     <row r="179" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A179" s="18"/>
+      <c r="A179" s="17"/>
       <c r="B179" s="6"/>
       <c r="C179" s="11"/>
       <c r="D179" s="11"/>
@@ -4941,7 +5999,7 @@
       <c r="J179" s="10"/>
     </row>
     <row r="180" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A180" s="18"/>
+      <c r="A180" s="17"/>
       <c r="C180" s="10"/>
       <c r="D180" s="10"/>
       <c r="E180" s="11"/>
@@ -4952,18 +6010,18 @@
       <c r="J180" s="10"/>
     </row>
     <row r="181" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A181" s="18"/>
+      <c r="A181" s="17"/>
       <c r="C181" s="11"/>
       <c r="D181" s="11"/>
-      <c r="E181" s="12"/>
-      <c r="F181" s="12"/>
-      <c r="G181" s="12"/>
-      <c r="H181" s="12"/>
-      <c r="I181" s="12"/>
+      <c r="E181" s="11"/>
+      <c r="F181" s="11"/>
+      <c r="G181" s="11"/>
+      <c r="H181" s="11"/>
+      <c r="I181" s="11"/>
       <c r="J181" s="10"/>
     </row>
     <row r="182" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A182" s="18"/>
+      <c r="A182" s="17"/>
       <c r="C182" s="10"/>
       <c r="D182" s="10"/>
       <c r="E182" s="11"/>
@@ -4974,7 +6032,7 @@
       <c r="J182" s="10"/>
     </row>
     <row r="183" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A183" s="18"/>
+      <c r="A183" s="17"/>
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
       <c r="E183" s="11"/>
@@ -4985,7 +6043,7 @@
       <c r="J183" s="10"/>
     </row>
     <row r="184" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A184" s="18"/>
+      <c r="A184" s="17"/>
       <c r="C184" s="10"/>
       <c r="D184" s="10"/>
       <c r="E184" s="11"/>
@@ -4996,7 +6054,7 @@
       <c r="J184" s="10"/>
     </row>
     <row r="185" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A185" s="18"/>
+      <c r="A185" s="17"/>
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
       <c r="E185" s="11"/>
@@ -5007,7 +6065,7 @@
       <c r="J185" s="10"/>
     </row>
     <row r="186" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A186" s="18"/>
+      <c r="A186" s="17"/>
       <c r="C186" s="10"/>
       <c r="D186" s="10"/>
       <c r="E186" s="11"/>
@@ -5018,7 +6076,7 @@
       <c r="J186" s="10"/>
     </row>
     <row r="187" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A187" s="18"/>
+      <c r="A187" s="17"/>
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
       <c r="E187" s="11"/>
@@ -5029,7 +6087,7 @@
       <c r="J187" s="10"/>
     </row>
     <row r="188" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A188" s="18"/>
+      <c r="A188" s="17"/>
       <c r="C188" s="10"/>
       <c r="D188" s="10"/>
       <c r="E188" s="11"/>
@@ -5040,18 +6098,18 @@
       <c r="J188" s="10"/>
     </row>
     <row r="189" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A189" s="18"/>
+      <c r="A189" s="17"/>
       <c r="C189" s="11"/>
       <c r="D189" s="11"/>
-      <c r="E189" s="12"/>
-      <c r="F189" s="12"/>
-      <c r="G189" s="12"/>
-      <c r="H189" s="12"/>
-      <c r="I189" s="12"/>
+      <c r="E189" s="11"/>
+      <c r="F189" s="11"/>
+      <c r="G189" s="11"/>
+      <c r="H189" s="11"/>
+      <c r="I189" s="11"/>
       <c r="J189" s="10"/>
     </row>
     <row r="190" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A190" s="18"/>
+      <c r="A190" s="17"/>
       <c r="C190" s="10"/>
       <c r="D190" s="10"/>
       <c r="E190" s="11"/>
@@ -5062,7 +6120,7 @@
       <c r="J190" s="10"/>
     </row>
     <row r="191" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A191" s="18"/>
+      <c r="A191" s="17"/>
       <c r="C191" s="11"/>
       <c r="D191" s="11"/>
       <c r="E191" s="11"/>
@@ -5073,7 +6131,7 @@
       <c r="J191" s="10"/>
     </row>
     <row r="192" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A192" s="18"/>
+      <c r="A192" s="17"/>
       <c r="C192" s="10"/>
       <c r="D192" s="10"/>
       <c r="E192" s="11"/>
@@ -5084,7 +6142,7 @@
       <c r="J192" s="10"/>
     </row>
     <row r="193" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A193" s="18"/>
+      <c r="A193" s="17"/>
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
       <c r="E193" s="11"/>
@@ -5095,7 +6153,7 @@
       <c r="J193" s="10"/>
     </row>
     <row r="194" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A194" s="18"/>
+      <c r="A194" s="17"/>
       <c r="C194" s="10"/>
       <c r="D194" s="10"/>
       <c r="E194" s="11"/>
@@ -5128,11 +6186,11 @@
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
-      <c r="E197" s="12"/>
-      <c r="F197" s="12"/>
-      <c r="G197" s="12"/>
-      <c r="H197" s="12"/>
-      <c r="I197" s="12"/>
+      <c r="E197" s="11"/>
+      <c r="F197" s="11"/>
+      <c r="G197" s="11"/>
+      <c r="H197" s="11"/>
+      <c r="I197" s="11"/>
       <c r="J197" s="10"/>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
@@ -5185,1003 +6243,753 @@
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="B16:B23 B170:B179 B27:B67 B99:B138">
-    <cfRule type="cellIs" dxfId="199" priority="398" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B139:B169 B3:B53">
-    <cfRule type="cellIs" dxfId="198" priority="346" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="197" priority="345" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3 B6:B10">
-    <cfRule type="cellIs" dxfId="196" priority="344" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B134">
-    <cfRule type="cellIs" dxfId="195" priority="325" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="194" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="325" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="cellIs" dxfId="193" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="330" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="cellIs" dxfId="192" priority="329" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="329" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="cellIs" dxfId="191" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="328" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="cellIs" dxfId="190" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="327" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B133">
-    <cfRule type="cellIs" dxfId="189" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="326" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142">
-    <cfRule type="cellIs" dxfId="188" priority="317" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="317" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="cellIs" dxfId="187" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="324" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="cellIs" dxfId="186" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="323" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="cellIs" dxfId="185" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="322" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="cellIs" dxfId="184" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="321" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139">
-    <cfRule type="cellIs" dxfId="183" priority="320" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="320" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140">
-    <cfRule type="cellIs" dxfId="182" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="319" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B141">
-    <cfRule type="cellIs" dxfId="181" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="318" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143">
-    <cfRule type="cellIs" dxfId="180" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="316" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="cellIs" dxfId="179" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="315" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145">
-    <cfRule type="cellIs" dxfId="178" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="314" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146">
-    <cfRule type="cellIs" dxfId="177" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="313" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B147">
-    <cfRule type="cellIs" dxfId="176" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="312" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B148">
-    <cfRule type="cellIs" dxfId="175" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="311" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B149">
-    <cfRule type="cellIs" dxfId="174" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="310" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B150">
-    <cfRule type="cellIs" dxfId="173" priority="309" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="309" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="172" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="308" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152">
-    <cfRule type="cellIs" dxfId="171" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="307" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153">
-    <cfRule type="cellIs" dxfId="170" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="306" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B154">
-    <cfRule type="cellIs" dxfId="169" priority="305" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="305" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155">
-    <cfRule type="cellIs" dxfId="168" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="304" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156">
-    <cfRule type="cellIs" dxfId="167" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="303" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="cellIs" dxfId="166" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="302" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158">
-    <cfRule type="cellIs" dxfId="165" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="301" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159">
-    <cfRule type="cellIs" dxfId="164" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="300" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160">
-    <cfRule type="cellIs" dxfId="163" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="299" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161">
-    <cfRule type="cellIs" dxfId="162" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="298" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
-    <cfRule type="cellIs" dxfId="161" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="297" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="160" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="296" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="cellIs" dxfId="159" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="295" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B165">
-    <cfRule type="cellIs" dxfId="158" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="294" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B166">
-    <cfRule type="cellIs" dxfId="157" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="293" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167">
-    <cfRule type="cellIs" dxfId="156" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="292" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B168">
-    <cfRule type="cellIs" dxfId="155" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="291" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B169">
-    <cfRule type="cellIs" dxfId="154" priority="290" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54:B73">
-    <cfRule type="cellIs" dxfId="153" priority="247" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54:B73">
-    <cfRule type="cellIs" dxfId="152" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="290" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B82">
-    <cfRule type="cellIs" dxfId="151" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="242" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B82">
-    <cfRule type="cellIs" dxfId="150" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="241" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B170:B179">
-    <cfRule type="cellIs" dxfId="149" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="181" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A170:A179">
-    <cfRule type="cellIs" dxfId="148" priority="129" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:A25">
-    <cfRule type="cellIs" dxfId="147" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="129" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A195:A1048576">
-    <cfRule type="cellIs" dxfId="146" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="178" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:A169">
-    <cfRule type="cellIs" dxfId="145" priority="135" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A17">
-    <cfRule type="cellIs" dxfId="144" priority="177" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A10">
-    <cfRule type="cellIs" dxfId="143" priority="176" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:A17">
-    <cfRule type="cellIs" dxfId="142" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="135" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A180:A186">
-    <cfRule type="cellIs" dxfId="141" priority="133" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="140" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="133" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A187:A194">
-    <cfRule type="cellIs" dxfId="139" priority="131" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:A17">
-    <cfRule type="cellIs" dxfId="138" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="131" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A155:A162">
-    <cfRule type="cellIs" dxfId="137" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="137" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A180:A194">
-    <cfRule type="cellIs" dxfId="136" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="134" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A160:A162">
-    <cfRule type="cellIs" dxfId="135" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="138" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A192:A194">
-    <cfRule type="cellIs" dxfId="134" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="132" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:A169">
-    <cfRule type="cellIs" dxfId="133" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="136" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A170:A179">
-    <cfRule type="cellIs" dxfId="132" priority="130" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:A17">
-    <cfRule type="cellIs" dxfId="131" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="130" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139:A146">
-    <cfRule type="cellIs" dxfId="130" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="141" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147:A154">
-    <cfRule type="cellIs" dxfId="129" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="139" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138:A146">
-    <cfRule type="cellIs" dxfId="128" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="144" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="cellIs" dxfId="127" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="143" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144:A146">
-    <cfRule type="cellIs" dxfId="126" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="142" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147:A162">
-    <cfRule type="cellIs" dxfId="125" priority="140" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:A32">
-    <cfRule type="cellIs" dxfId="124" priority="126" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:A32">
-    <cfRule type="cellIs" dxfId="123" priority="124" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:A32">
-    <cfRule type="cellIs" dxfId="122" priority="123" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:A32">
-    <cfRule type="cellIs" dxfId="121" priority="122" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:A47">
-    <cfRule type="cellIs" dxfId="120" priority="121" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:A40">
-    <cfRule type="cellIs" dxfId="119" priority="120" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:A47">
-    <cfRule type="cellIs" dxfId="118" priority="119" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:A47">
-    <cfRule type="cellIs" dxfId="117" priority="118" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:A47">
-    <cfRule type="cellIs" dxfId="116" priority="117" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:A62">
-    <cfRule type="cellIs" dxfId="115" priority="116" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:A55">
-    <cfRule type="cellIs" dxfId="114" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="140" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:A62">
-    <cfRule type="cellIs" dxfId="113" priority="114" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:A62">
-    <cfRule type="cellIs" dxfId="112" priority="113" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:A62">
-    <cfRule type="cellIs" dxfId="111" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="114" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A77">
-    <cfRule type="cellIs" dxfId="110" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="111" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A70">
-    <cfRule type="cellIs" dxfId="109" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="110" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:A77">
-    <cfRule type="cellIs" dxfId="108" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="109" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:A77">
-    <cfRule type="cellIs" dxfId="107" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="108" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:A77">
-    <cfRule type="cellIs" dxfId="106" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="107" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:A92">
-    <cfRule type="cellIs" dxfId="105" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="106" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:A85">
-    <cfRule type="cellIs" dxfId="104" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="105" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:A92">
-    <cfRule type="cellIs" dxfId="103" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="104" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:A92">
-    <cfRule type="cellIs" dxfId="102" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="103" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:A92">
-    <cfRule type="cellIs" dxfId="101" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="102" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:A107">
-    <cfRule type="cellIs" dxfId="100" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="101" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:A100">
-    <cfRule type="cellIs" dxfId="99" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="100" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106:A107">
-    <cfRule type="cellIs" dxfId="98" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="99" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:A107">
-    <cfRule type="cellIs" dxfId="97" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="98" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:A107">
-    <cfRule type="cellIs" dxfId="96" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="97" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:A122">
-    <cfRule type="cellIs" dxfId="95" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="96" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108:A115">
-    <cfRule type="cellIs" dxfId="94" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="95" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121:A122">
-    <cfRule type="cellIs" dxfId="93" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="94" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116:A122">
-    <cfRule type="cellIs" dxfId="92" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="93" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116:A122">
-    <cfRule type="cellIs" dxfId="91" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="92" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123:A137">
-    <cfRule type="cellIs" dxfId="90" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="91" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123:A130">
-    <cfRule type="cellIs" dxfId="89" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="90" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136:A137">
-    <cfRule type="cellIs" dxfId="88" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="89" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A137">
-    <cfRule type="cellIs" dxfId="87" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="88" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131:A137">
-    <cfRule type="cellIs" dxfId="86" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="87" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68:B98">
-    <cfRule type="cellIs" dxfId="85" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="86" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="cellIs" dxfId="84" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="80" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="83" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="85" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="cellIs" dxfId="82" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="84" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="81" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="83" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="80" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="79" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="81" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="cellIs" dxfId="78" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="72" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="79" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="cellIs" dxfId="76" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="78" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="cellIs" dxfId="75" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="77" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="74" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="76" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="75" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="cellIs" dxfId="72" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="74" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="cellIs" dxfId="71" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="73" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="cellIs" dxfId="70" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="71" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="70" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="cellIs" dxfId="68" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="69" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="cellIs" dxfId="67" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="68" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="67" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78">
-    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="65" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79">
-    <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="64" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80">
-    <cfRule type="cellIs" dxfId="62" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="63" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="61" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="cellIs" dxfId="59" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="60" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="59" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="58" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="57" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="56" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88">
-    <cfRule type="cellIs" dxfId="54" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="55" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="53" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="49" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95">
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96">
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="47" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97">
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98">
-    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B11">
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B11">
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B108">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:A108">
-    <cfRule type="cellIs" dxfId="40" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="41" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:A98">
-    <cfRule type="cellIs" dxfId="38" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109:A115">
-    <cfRule type="cellIs" dxfId="37" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116:A123">
-    <cfRule type="cellIs" dxfId="36" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84:A91">
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109:A123">
-    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89:A91">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121:A123">
-    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:A98">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:A108">
-    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:A75">
-    <cfRule type="cellIs" dxfId="29" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:A83">
-    <cfRule type="cellIs" dxfId="28" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:A75">
-    <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="40" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67">
-    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A75">
-    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:A91">
-    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A6">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A6">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A6">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A6">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:A21">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:A14">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:A21">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A21">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A21">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:A36">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:A29">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:A36">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:A36">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:A36">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A51">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A44">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:A51">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:A51">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:A51">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52:A66">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52:A59">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="36" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:A66">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:A66">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:A66">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
